--- a/python/testingWanAndroid/usersInfo.xlsx
+++ b/python/testingWanAndroid/usersInfo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>username</t>
   </si>
@@ -50,6 +50,42 @@
   </si>
   <si>
     <t>wjndxxhijy</t>
+  </si>
+  <si>
+    <t>rjovmstjjc</t>
+  </si>
+  <si>
+    <t>ssayjcvzkt</t>
+  </si>
+  <si>
+    <t>nxwheqxmws</t>
+  </si>
+  <si>
+    <t>hgmvvnkdlw</t>
+  </si>
+  <si>
+    <t>sxdurjyfol</t>
+  </si>
+  <si>
+    <t>ruaswovhrq</t>
+  </si>
+  <si>
+    <t>cxihmmjbiz</t>
+  </si>
+  <si>
+    <t>ikpapdbvhl</t>
+  </si>
+  <si>
+    <t>srodgmbmaw</t>
+  </si>
+  <si>
+    <t>jbkrymslxz</t>
+  </si>
+  <si>
+    <t>ytxqwloeki</t>
+  </si>
+  <si>
+    <t>kvkquepqbz</t>
   </si>
 </sst>
 </file>
@@ -373,7 +409,7 @@
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
     <s:pageSetUpPr/>
   </s:sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
@@ -433,6 +469,54 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait"/>
